--- a/Employee Data Analysis.xlsx
+++ b/Employee Data Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Полина\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B07679-F95B-497D-862F-17FAA091AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D41726-A275-4AEE-B868-AA1D671669CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{65C14963-D7D9-489F-85DF-B390E3AF6B64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{65C14963-D7D9-489F-85DF-B390E3AF6B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -6195,7 +6198,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0"/>
     </dxf>
@@ -6945,7 +6978,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6CE-4F44-9E55-27EBACCF28F9}"/>
+              <c16:uniqueId val="{0000000D-8C6C-4F03-8310-3DD593A23587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7010,7 +7043,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6CE-4F44-9E55-27EBACCF28F9}"/>
+              <c16:uniqueId val="{0000000E-8C6C-4F03-8310-3DD593A23587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7077,7 +7110,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A6CE-4F44-9E55-27EBACCF28F9}"/>
+              <c16:uniqueId val="{0000000F-8C6C-4F03-8310-3DD593A23587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7144,7 +7177,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A6CE-4F44-9E55-27EBACCF28F9}"/>
+              <c16:uniqueId val="{00000010-8C6C-4F03-8310-3DD593A23587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7211,7 +7244,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A6CE-4F44-9E55-27EBACCF28F9}"/>
+              <c16:uniqueId val="{00000011-8C6C-4F03-8310-3DD593A23587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7279,7 +7312,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A6CE-4F44-9E55-27EBACCF28F9}"/>
+              <c16:uniqueId val="{00000012-8C6C-4F03-8310-3DD593A23587}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7644,7 +7677,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7700,7 +7745,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7756,7 +7813,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7812,7 +7881,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7886,7 +7971,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -7978,7 +8075,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8070,7 +8179,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8164,7 +8285,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -8240,6 +8377,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1944403999"/>
         <c:axId val="1944405663"/>
@@ -11259,7 +11397,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11315,7 +11465,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11371,7 +11533,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11427,7 +11601,23 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11501,7 +11691,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11593,7 +11795,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11685,7 +11899,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11779,7 +12005,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -11855,6 +12097,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1944403999"/>
         <c:axId val="1944405663"/>
@@ -13590,7 +13833,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-80A0-4312-9B7E-DBC6A819EE1E}"/>
+              <c16:uniqueId val="{0000000D-487D-4CD8-942A-8CB96AA632B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13655,7 +13898,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-80A0-4312-9B7E-DBC6A819EE1E}"/>
+              <c16:uniqueId val="{0000000E-487D-4CD8-942A-8CB96AA632B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13722,7 +13965,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-80A0-4312-9B7E-DBC6A819EE1E}"/>
+              <c16:uniqueId val="{0000000F-487D-4CD8-942A-8CB96AA632B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13789,7 +14032,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-80A0-4312-9B7E-DBC6A819EE1E}"/>
+              <c16:uniqueId val="{00000010-487D-4CD8-942A-8CB96AA632B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13856,7 +14099,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-80A0-4312-9B7E-DBC6A819EE1E}"/>
+              <c16:uniqueId val="{00000011-487D-4CD8-942A-8CB96AA632B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13924,7 +14167,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-80A0-4312-9B7E-DBC6A819EE1E}"/>
+              <c16:uniqueId val="{00000012-487D-4CD8-942A-8CB96AA632B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17508,16 +17751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17544,16 +17787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17858,16 +18101,16 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="City">
@@ -17890,7 +18133,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17900,7 +18143,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4295775"/>
+              <a:off x="0" y="4286250"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -35153,7 +35396,7 @@
     <dataField name="Sum of Annual Salary" fld="9" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -35449,7 +35692,7 @@
     <dataField name="Sum of Annual Salary" fld="9" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -35866,7 +36109,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7CA8898-8363-4905-AB67-C7A42F7FDBFA}" name="TBL_Employees" displayName="TBL_Employees" ref="A1:O1001" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D7CA8898-8363-4905-AB67-C7A42F7FDBFA}" name="TBL_Employees" displayName="TBL_Employees" ref="A1:O1001" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:O1001" xr:uid="{D7CA8898-8363-4905-AB67-C7A42F7FDBFA}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{C53A9B11-526E-4544-9240-8F1BF85C6750}" name="EEID"/>
@@ -35877,13 +36120,13 @@
     <tableColumn id="6" xr3:uid="{8EF3B415-18BF-405F-975C-1743BB4C3757}" name="Gender"/>
     <tableColumn id="7" xr3:uid="{6A0E630E-DF29-47EA-84F9-2F0B09D21C30}" name="Ethnicity"/>
     <tableColumn id="8" xr3:uid="{E15FD44F-389F-4F09-9585-BC74F2C33EC0}" name="Age"/>
-    <tableColumn id="9" xr3:uid="{94A02DFC-97C6-4041-9BB7-B996CFD8DC0F}" name="Hire Date" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{CA3B0D4F-FCC2-4967-BC8E-979F23AA32F2}" name="Annual Salary" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{84DC6F9B-C840-4378-9E1C-BEB4EB18E284}" name="Bonus %" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{94A02DFC-97C6-4041-9BB7-B996CFD8DC0F}" name="Hire Date" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{CA3B0D4F-FCC2-4967-BC8E-979F23AA32F2}" name="Annual Salary" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{84DC6F9B-C840-4378-9E1C-BEB4EB18E284}" name="Bonus %" dataDxfId="36"/>
     <tableColumn id="12" xr3:uid="{CE1EEE5A-39A1-487E-BBC4-1A7B33DC7D56}" name="Country"/>
     <tableColumn id="13" xr3:uid="{7A08E8D1-8DAD-46E1-B6BA-B9ED0ABD69C7}" name="City"/>
-    <tableColumn id="14" xr3:uid="{C7E08E0D-5677-461D-982F-21737E3F492B}" name="Exit Date" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{D8B5BFF1-F625-415E-B4DD-64F7593B5FA4}" name="Age Brackets" dataDxfId="24">
+    <tableColumn id="14" xr3:uid="{C7E08E0D-5677-461D-982F-21737E3F492B}" name="Exit Date" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{D8B5BFF1-F625-415E-B4DD-64F7593B5FA4}" name="Age Brackets" dataDxfId="34">
       <calculatedColumnFormula array="1">_xlfn.IFS(TBL_Employees[[#This Row],[Age]]&lt;31, "Adolescent", TBL_Employees[[#This Row],[Age]]&lt;54, "Middle Age", TBL_Employees[[#This Row],[Age]]&gt;=54, "Old")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -36191,7 +36434,7 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O3"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84272,18 +84515,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76208E4A-C160-4EB6-A674-551F2A8EBFD6}">
   <dimension ref="A3:I28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -84778,7 +85021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462F602F-C84C-4503-9AB3-E80DDDB98BA0}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
